--- a/Network Configurations.xlsx
+++ b/Network Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunet-my.sharepoint.com/personal/cojcr_lunet_lboro_ac_uk/Documents/COMPUTER SCIENCE AND AI/Part B/Semester 2/AI Methods/NeuralNetworkCoursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="878" documentId="8_{08A41083-90E8-4E4D-B6EA-1A9686434399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{83579B5F-F44A-1F43-933F-26F273C33112}"/>
+  <xr:revisionPtr revIDLastSave="880" documentId="8_{08A41083-90E8-4E4D-B6EA-1A9686434399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{37A8190E-679B-6F46-9FC1-0CAE569B96D8}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="-21100" windowWidth="18860" windowHeight="21100" xr2:uid="{E4830EFE-E8E2-C747-8C29-F13A46C9E4DA}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{E4830EFE-E8E2-C747-8C29-F13A46C9E4DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
-    <t>Number of Hidden Layers</t>
-  </si>
-  <si>
     <t>Learning Rate</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Best Configuration</t>
+  </si>
+  <si>
+    <t>Number of Hidden Nodes</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,28 +562,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="20" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
@@ -612,13 +612,13 @@
         <v>50.057214387930628</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
